--- a/src/Pharma_staff.xlsx
+++ b/src/Pharma_staff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Staff ID</t>
   </si>
@@ -41,12 +41,16 @@
   </si>
   <si>
     <t>Mark Lee</t>
+  </si>
+  <si>
+    <t>29.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -414,8 +418,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="24.7109375"/>
+    <col min="3" max="3" customWidth="true" width="30.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -436,20 +440,20 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>29</v>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
